--- a/Optimization/Liability_Profiles.xlsx
+++ b/Optimization/Liability_Profiles.xlsx
@@ -502,22 +502,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C3">
         <v>0.55</v>
       </c>
       <c r="D3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -525,7 +525,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -540,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -548,7 +548,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="C5">
         <v>0.6</v>
@@ -557,13 +557,13 @@
         <v>0.2</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -571,22 +571,22 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="C6">
         <v>0.45</v>
       </c>
       <c r="D6">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>8</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -609,7 +609,7 @@
         <v>8</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -653,22 +653,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.1348155912779709</v>
+        <v>0.1689185198207774</v>
       </c>
       <c r="C2">
-        <v>0.09745857796244041</v>
+        <v>0.1589805568300293</v>
       </c>
       <c r="D2">
-        <v>0.1048340466690768</v>
+        <v>0.1292242474524096</v>
       </c>
       <c r="E2">
-        <v>0.1100805415373929</v>
+        <v>0.1446944197272124</v>
       </c>
       <c r="F2">
-        <v>0.09044831424525526</v>
+        <v>0.1663538972060244</v>
       </c>
       <c r="G2">
-        <v>0.1192556713679725</v>
+        <v>0.1433396118284207</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -676,22 +676,22 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1131926468072204</v>
+        <v>0.1349559073074554</v>
       </c>
       <c r="C3">
-        <v>0.08683046487467824</v>
+        <v>0.1286138573237461</v>
       </c>
       <c r="D3">
-        <v>0.09205444818141362</v>
+        <v>0.110208861221367</v>
       </c>
       <c r="E3">
-        <v>0.09662392662399064</v>
+        <v>0.1200092756082437</v>
       </c>
       <c r="F3">
-        <v>0.0812399637808473</v>
+        <v>0.1316541803165323</v>
       </c>
       <c r="G3">
-        <v>0.1031340724203252</v>
+        <v>0.1202472618056763</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -699,22 +699,22 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.09583191092542517</v>
+        <v>0.1089267607465874</v>
       </c>
       <c r="C4">
-        <v>0.07764037829647896</v>
+        <v>0.1051107795844779</v>
       </c>
       <c r="D4">
-        <v>0.08121667520022882</v>
+        <v>0.09443969292366754</v>
       </c>
       <c r="E4">
-        <v>0.08511658274908948</v>
+        <v>0.1003753009834837</v>
       </c>
       <c r="F4">
-        <v>0.0732556108868858</v>
+        <v>0.1054980058819011</v>
       </c>
       <c r="G4">
-        <v>0.08958176436395586</v>
+        <v>0.1013434428142841</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -722,22 +722,22 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.08175171290879793</v>
+        <v>0.08879741182910135</v>
       </c>
       <c r="C5">
-        <v>0.06965938529000873</v>
+        <v>0.08674421880123459</v>
       </c>
       <c r="D5">
-        <v>0.0719786972959052</v>
+        <v>0.08130208917836107</v>
       </c>
       <c r="E5">
-        <v>0.07523439265428543</v>
+        <v>0.08460673200273505</v>
       </c>
       <c r="F5">
-        <v>0.0662977848873718</v>
+        <v>0.08560509233035483</v>
       </c>
       <c r="G5">
-        <v>0.07813628032011716</v>
+        <v>0.0858043996641694</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -745,22 +745,22 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.07021991971626783</v>
+        <v>0.07308268527578786</v>
       </c>
       <c r="C6">
-        <v>0.06269959974758801</v>
+        <v>0.0722484443646008</v>
       </c>
       <c r="D6">
-        <v>0.06406466371107668</v>
+        <v>0.0703057432888993</v>
       </c>
       <c r="E6">
-        <v>0.06671309152969764</v>
+        <v>0.0718219156953592</v>
       </c>
       <c r="F6">
-        <v>0.0602051698708097</v>
+        <v>0.07032554194664559</v>
       </c>
       <c r="G6">
-        <v>0.06842562098542149</v>
+        <v>0.07297682096128102</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -768,22 +768,22 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.06068693350773311</v>
+        <v>0.06069410137305786</v>
       </c>
       <c r="C7">
-        <v>0.05660618698735375</v>
+        <v>0.06069201257941569</v>
       </c>
       <c r="D7">
-        <v>0.05725133884144903</v>
+        <v>0.06105852390324381</v>
       </c>
       <c r="E7">
-        <v>0.05933637930163022</v>
+        <v>0.06136132364161986</v>
       </c>
       <c r="F7">
-        <v>0.05484543866692185</v>
+        <v>0.05846298935923304</v>
       </c>
       <c r="G7">
-        <v>0.06014960039838116</v>
+        <v>0.06234150282250712</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -791,22 +791,22 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.05273719114943374</v>
+        <v>0.05083062078527152</v>
       </c>
       <c r="C8">
-        <v>0.05125101163938975</v>
+        <v>0.0513862160531242</v>
       </c>
       <c r="D8">
-        <v>0.05135741384865786</v>
+        <v>0.0532459377499143</v>
       </c>
       <c r="E8">
-        <v>0.05292650581020543</v>
+        <v>0.05272824690687104</v>
       </c>
       <c r="F8">
-        <v>0.05010957683198802</v>
+        <v>0.04914766768916227</v>
       </c>
       <c r="G8">
-        <v>0.05306516031990886</v>
+        <v>0.05348489065617643</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -814,22 +814,22 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.04605398596990882</v>
+        <v>0.0428999369664698</v>
       </c>
       <c r="C9">
-        <v>0.04652757994686912</v>
+        <v>0.04381906103019465</v>
       </c>
       <c r="D9">
-        <v>0.0462350727227464</v>
+        <v>0.04661499831020754</v>
       </c>
       <c r="E9">
-        <v>0.04733680016754895</v>
+        <v>0.04554581712660226</v>
       </c>
       <c r="F9">
-        <v>0.04590737810397967</v>
+        <v>0.04174526729669332</v>
       </c>
       <c r="G9">
-        <v>0.04697479380619026</v>
+        <v>0.04607677507062253</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -837,22 +837,22 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.04039389169511325</v>
+        <v>0.03646171300472617</v>
       </c>
       <c r="C10">
-        <v>0.04234700306493697</v>
+        <v>0.03760759249273037</v>
       </c>
       <c r="D10">
-        <v>0.04176332692641595</v>
+        <v>0.04096154182770435</v>
       </c>
       <c r="E10">
-        <v>0.04244573039415406</v>
+        <v>0.03952579022045105</v>
       </c>
       <c r="F10">
-        <v>0.04216386195693591</v>
+        <v>0.03579146314242987</v>
       </c>
       <c r="G10">
-        <v>0.04171740649501508</v>
+        <v>0.03985279711466438</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -860,22 +860,22 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.03556811553401579</v>
+        <v>0.0311865910005001</v>
       </c>
       <c r="C11">
-        <v>0.03863476690796966</v>
+        <v>0.03246341473727911</v>
       </c>
       <c r="D11">
-        <v>0.03784273872535755</v>
+        <v>0.03612024222392923</v>
       </c>
       <c r="E11">
-        <v>0.03815216909434701</v>
+        <v>0.03444581425917648</v>
       </c>
       <c r="F11">
-        <v>0.03881641790388274</v>
+        <v>0.03094485402337349</v>
       </c>
       <c r="G11">
-        <v>0.03716109075016499</v>
+        <v>0.03460071358686885</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -883,22 +883,22 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.03142885861931931</v>
+        <v>0.02682654515256866</v>
       </c>
       <c r="C12">
-        <v>0.03532814019750665</v>
+        <v>0.02816770917744057</v>
       </c>
       <c r="D12">
-        <v>0.03439123601638283</v>
+        <v>0.03195674038767736</v>
       </c>
       <c r="E12">
-        <v>0.03437161098356403</v>
+        <v>0.03013282492458573</v>
       </c>
       <c r="F12">
-        <v>0.03581252340205458</v>
+        <v>0.02695311171788654</v>
       </c>
       <c r="G12">
-        <v>0.03319740222278645</v>
+        <v>0.03014960353898046</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -906,22 +906,22 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.02785930115226316</v>
+        <v>0.0231933995512811</v>
       </c>
       <c r="C13">
-        <v>0.03237408842373241</v>
+        <v>0.02455309384764711</v>
       </c>
       <c r="D13">
-        <v>0.03134078603318381</v>
+        <v>0.02836143114394794</v>
       </c>
       <c r="E13">
-        <v>0.03103314283242352</v>
+        <v>0.0264508735726873</v>
       </c>
       <c r="F13">
-        <v>0.03310791520109305</v>
+        <v>0.0236286106511671</v>
       </c>
       <c r="G13">
-        <v>0.02973681769218563</v>
+        <v>0.02636137672615365</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -929,22 +929,22 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.0247662166616985</v>
+        <v>0.02014322796433338</v>
       </c>
       <c r="C14">
-        <v>0.02972758965557894</v>
+        <v>0.02149041697548803</v>
       </c>
       <c r="D14">
-        <v>0.02863474573250055</v>
+        <v>0.02524455094033466</v>
       </c>
       <c r="E14">
-        <v>0.02807700920657229</v>
+        <v>0.02329216780318401</v>
       </c>
       <c r="F14">
-        <v>0.03066511976932533</v>
+        <v>0.02083086407737565</v>
       </c>
       <c r="G14">
-        <v>0.02670512277246559</v>
+        <v>0.02312408482740998</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -952,22 +952,22 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.02207449777714737</v>
+        <v>0.01756499576346825</v>
       </c>
       <c r="C15">
-        <v>0.02735027023594579</v>
+        <v>0.01887911352500871</v>
       </c>
       <c r="D15">
-        <v>0.02622574605404204</v>
+        <v>0.02253228711115453</v>
       </c>
       <c r="E15">
-        <v>0.02545265087744213</v>
+        <v>0.02057044545696172</v>
       </c>
       <c r="F15">
-        <v>0.02845226861390788</v>
+        <v>0.01845384919940954</v>
       </c>
       <c r="G15">
-        <v>0.02404053252638724</v>
+        <v>0.02034664550314149</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -975,22 +975,22 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.01972307566559067</v>
+        <v>0.01537226533269883</v>
       </c>
       <c r="C16">
-        <v>0.02520929571877802</v>
+        <v>0.01664013861853028</v>
       </c>
       <c r="D16">
-        <v>0.02407399803181907</v>
+        <v>0.02016369032116088</v>
       </c>
       <c r="E16">
-        <v>0.02311711900055723</v>
+        <v>0.01821604795776315</v>
       </c>
       <c r="F16">
-        <v>0.02644214010852065</v>
+        <v>0.01641684583369911</v>
       </c>
       <c r="G16">
-        <v>0.02169139057320171</v>
+        <v>0.01795467457314591</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -998,22 +998,22 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.0176618588960039</v>
+        <v>0.01349711724328469</v>
       </c>
       <c r="C17">
-        <v>0.02327646598876261</v>
+        <v>0.01471076809906965</v>
       </c>
       <c r="D17">
-        <v>0.02214593280375174</v>
+        <v>0.01808821921399954</v>
       </c>
       <c r="E17">
-        <v>0.02103378869822027</v>
+        <v>0.01617223501883976</v>
       </c>
       <c r="F17">
-        <v>0.02461138181735562</v>
+        <v>0.01465780188356605</v>
       </c>
       <c r="G17">
-        <v>0.0196143255314219</v>
+        <v>0.01588718808711703</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1021,22 +1021,22 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.0158494208221252</v>
+        <v>0.01188567703420053</v>
       </c>
       <c r="C18">
-        <v>0.02152747416749357</v>
+        <v>0.01304075493373511</v>
       </c>
       <c r="D18">
-        <v>0.02041310639480511</v>
+        <v>0.01626378332779362</v>
       </c>
       <c r="E18">
-        <v>0.01917131178502553</v>
+        <v>0.014392409403876</v>
       </c>
       <c r="F18">
-        <v>0.02293987700508418</v>
+        <v>0.01312851751255854</v>
       </c>
       <c r="G18">
-        <v>0.01777276964169511</v>
+        <v>0.01409398794811012</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1044,22 +1044,22 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.01425123897677058</v>
+        <v>0.01049480801663064</v>
       </c>
       <c r="C19">
-        <v>0.01994129728838025</v>
+        <v>0.01158947271125685</v>
       </c>
       <c r="D19">
-        <v>0.01885131488597185</v>
+        <v>0.01465517927657969</v>
       </c>
       <c r="E19">
-        <v>0.0175027610071948</v>
+        <v>0.01283801161304731</v>
       </c>
       <c r="F19">
-        <v>0.02141022663340173</v>
+        <v>0.01179113968148529</v>
       </c>
       <c r="G19">
-        <v>0.01613576476038917</v>
+        <v>0.01253358525512201</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1067,22 +1067,22 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.01283834360046556</v>
+        <v>0.009289653063451727</v>
       </c>
       <c r="C20">
-        <v>0.01849969331301111</v>
+        <v>0.01032377994725274</v>
       </c>
       <c r="D20">
-        <v>0.01743987712352804</v>
+        <v>0.01323283781291006</v>
       </c>
       <c r="E20">
-        <v>0.0160049280866925</v>
+        <v>0.01147691006329664</v>
       </c>
       <c r="F20">
-        <v>0.02000732412140073</v>
+        <v>0.01061560196782632</v>
       </c>
       <c r="G20">
-        <v>0.01467699684195896</v>
+        <v>0.01117154716035096</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1090,22 +1090,22 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.01158627112963054</v>
+        <v>0.008241796424692853</v>
       </c>
       <c r="C21">
-        <v>0.01718678425197</v>
+        <v>0.009216412601700755</v>
       </c>
       <c r="D21">
-        <v>0.01616105116924565</v>
+        <v>0.01197181707220569</v>
       </c>
       <c r="E21">
-        <v>0.01465774565888366</v>
+        <v>0.0102821597221116</v>
       </c>
       <c r="F21">
-        <v>0.01871800484513088</v>
+        <v>0.009577747331576807</v>
       </c>
       <c r="G21">
-        <v>0.01337401250520322</v>
+        <v>0.009979177743518341</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1113,22 +1113,22 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.01047424643978119</v>
+        <v>0.007327879960072668</v>
       </c>
       <c r="C22">
-        <v>0.0159887092461806</v>
+        <v>0.008244765253117955</v>
       </c>
       <c r="D22">
-        <v>0.01499955778801054</v>
+        <v>0.01085099113580986</v>
       </c>
       <c r="E22">
-        <v>0.0134438093291023</v>
+        <v>0.009231036384041907</v>
       </c>
       <c r="F22">
-        <v>0.01753075604898134</v>
+        <v>0.008657945198996238</v>
       </c>
       <c r="G22">
-        <v>0.01220758105984422</v>
+        <v>0.008932462712454462</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1136,22 +1136,22 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.009484537887710816</v>
+        <v>0.006528553778406027</v>
       </c>
       <c r="C23">
-        <v>0.01489333469745614</v>
+        <v>0.007389959585318961</v>
       </c>
       <c r="D23">
-        <v>0.0139421898400844</v>
+        <v>0.009852393881129731</v>
       </c>
       <c r="E23">
-        <v>0.01234798090888672</v>
+        <v>0.008304278543047003</v>
       </c>
       <c r="F23">
-        <v>0.01643547575484423</v>
+        <v>0.007840067126318101</v>
       </c>
       <c r="G23">
-        <v>0.01116117304422185</v>
+        <v>0.008011222832801012</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1159,22 +1159,22 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.008601943884771259</v>
+        <v>0.005827674125466828</v>
       </c>
       <c r="C24">
-        <v>0.01389001109412257</v>
+        <v>0.006636126401338443</v>
       </c>
       <c r="D24">
-        <v>0.01297749082315147</v>
+        <v>0.008960686571916253</v>
       </c>
       <c r="E24">
-        <v>0.01135705770804491</v>
+        <v>0.007485486763314183</v>
       </c>
       <c r="F24">
-        <v>0.01542327155382847</v>
+        <v>0.007110723271122974</v>
       </c>
       <c r="G24">
-        <v>0.01022053235169791</v>
+        <v>0.007198432795363377</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1182,22 +1182,22 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.00781338041350073</v>
+        <v>0.005211685056341802</v>
       </c>
       <c r="C25">
-        <v>0.0129693682041127</v>
+        <v>0.00596984728103732</v>
       </c>
       <c r="D25">
-        <v>0.01209548925355112</v>
+        <v>0.008162724292963665</v>
       </c>
       <c r="E25">
-        <v>0.01045949577393773</v>
+        <v>0.006760643490736385</v>
       </c>
       <c r="F25">
-        <v>0.01448629198201134</v>
+        <v>0.00645868916257923</v>
       </c>
       <c r="G25">
-        <v>0.009373323761185449</v>
+        <v>0.006479671468697538</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1205,22 +1205,22 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.007107546687433301</v>
+        <v>0.004669137540602557</v>
       </c>
       <c r="C26">
-        <v>0.01212314191707305</v>
+        <v>0.005379716393884558</v>
       </c>
       <c r="D26">
-        <v>0.01128747828915994</v>
+        <v>0.007447201551773477</v>
       </c>
       <c r="E26">
-        <v>0.009645177356273193</v>
+        <v>0.006117725744915994</v>
       </c>
       <c r="F26">
-        <v>0.01361758461988426</v>
+        <v>0.005874471849804623</v>
       </c>
       <c r="G26">
-        <v>0.008608841415994321</v>
+        <v>0.005842676719417359</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1228,22 +1228,22 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.006474651850986996</v>
+        <v>0.004190312026710763</v>
       </c>
       <c r="C27">
-        <v>0.01134402729748696</v>
+        <v>0.004855993409570702</v>
       </c>
       <c r="D27">
-        <v>0.01054583213639229</v>
+        <v>0.006804361467505765</v>
       </c>
       <c r="E27">
-        <v>0.008905214768743071</v>
+        <v>0.005546390070828585</v>
       </c>
       <c r="F27">
-        <v>0.01281097619577287</v>
+        <v>0.005349978589746575</v>
       </c>
       <c r="G27">
-        <v>0.007917766733546454</v>
+        <v>0.005276983652136308</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1251,22 +1251,22 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.005906189799920784</v>
+        <v>0.003766919462447935</v>
       </c>
       <c r="C28">
-        <v>0.01062555343210293</v>
+        <v>0.00439032602456545</v>
       </c>
       <c r="D28">
-        <v>0.00986385247432146</v>
+        <v>0.006225756188719751</v>
       </c>
       <c r="E28">
-        <v>0.008231784323244557</v>
+        <v>0.005037714217554393</v>
       </c>
       <c r="F28">
-        <v>0.01206097087999544</v>
+        <v>0.004878261367494737</v>
       </c>
       <c r="G28">
-        <v>0.007291966547266828</v>
+        <v>0.0047736295670995</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1274,22 +1274,22 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.005394752288522237</v>
+        <v>0.003391862283364528</v>
       </c>
       <c r="C29">
-        <v>0.009961976471574117</v>
+        <v>0.003975526138532037</v>
       </c>
       <c r="D29">
-        <v>0.009235639466603145</v>
+        <v>0.005704048716391541</v>
       </c>
       <c r="E29">
-        <v>0.007617985210648354</v>
+        <v>0.004583983758022363</v>
       </c>
       <c r="F29">
-        <v>0.01136266367852995</v>
+        <v>0.004453317837873713</v>
       </c>
       <c r="G29">
-        <v>0.006724324114595308</v>
+        <v>0.004324912423393893</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1297,22 +1297,22 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.004933872776979702</v>
+        <v>0.003059041625583998</v>
       </c>
       <c r="C30">
-        <v>0.009348187920944748</v>
+        <v>0.003605387742841492</v>
       </c>
       <c r="D30">
-        <v>0.008655982992287044</v>
+        <v>0.005232848306187411</v>
       </c>
       <c r="E30">
-        <v>0.007057719158712812</v>
+        <v>0.0041785146354649</v>
       </c>
       <c r="F30">
-        <v>0.01071166641141816</v>
+        <v>0.00406993453704964</v>
       </c>
       <c r="G30">
-        <v>0.00620859707597558</v>
+        <v>0.003924192337492167</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1320,22 +1320,22 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.00451789517749144</v>
+        <v>0.002763200484657421</v>
       </c>
       <c r="C31">
-        <v>0.0087796357600733</v>
+        <v>0.003274537535830547</v>
       </c>
       <c r="D31">
-        <v>0.008120270568879895</v>
+        <v>0.004806573200134923</v>
       </c>
       <c r="E31">
-        <v>0.00654558746348846</v>
+        <v>0.003815504683966462</v>
       </c>
       <c r="F31">
-        <v>0.0101040442225812</v>
+        <v>0.003723562010113036</v>
       </c>
       <c r="G31">
-        <v>0.005739297600524774</v>
+        <v>0.003565727803423673</v>
       </c>
     </row>
   </sheetData>
@@ -1391,16 +1391,16 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>7.787982021218225</v>
+        <v>5.354648814067438</v>
       </c>
       <c r="C2">
-        <v>106.6417751157531</v>
+        <v>25.61477230635892</v>
       </c>
       <c r="D2">
-        <v>0.1348155912779709</v>
+        <v>0.1689185198207774</v>
       </c>
       <c r="E2">
-        <v>0.4958117816356822</v>
+        <v>0.5746812849797094</v>
       </c>
       <c r="F2">
         <v>0.3</v>
@@ -1426,34 +1426,34 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>9.643912349467278</v>
+        <v>5.603951939757283</v>
       </c>
       <c r="C3">
-        <v>151.4764439534824</v>
+        <v>27.65811079765091</v>
       </c>
       <c r="D3">
-        <v>0.09745857796244041</v>
+        <v>0.1589805568300293</v>
       </c>
       <c r="E3">
-        <v>0.3942884061711943</v>
+        <v>0.5516978569040888</v>
       </c>
       <c r="F3">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="G3">
         <v>0.55</v>
       </c>
       <c r="H3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K3">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1461,19 +1461,19 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>9.304619205857412</v>
+        <v>6.357645888860254</v>
       </c>
       <c r="C4">
-        <v>143.5663471695614</v>
+        <v>33.02367349563603</v>
       </c>
       <c r="D4">
-        <v>0.1048340466690768</v>
+        <v>0.1292242474524096</v>
       </c>
       <c r="E4">
-        <v>0.4141485310577011</v>
+        <v>0.4854806340647045</v>
       </c>
       <c r="F4">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G4">
         <v>0.5</v>
@@ -1488,7 +1488,7 @@
         <v>8</v>
       </c>
       <c r="K4">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1496,19 +1496,19 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>8.830728331661737</v>
+        <v>5.927794806340268</v>
       </c>
       <c r="C5">
-        <v>130.7322405719525</v>
+        <v>29.76149868479486</v>
       </c>
       <c r="D5">
-        <v>0.1100805415373929</v>
+        <v>0.1446944197272124</v>
       </c>
       <c r="E5">
-        <v>0.4337685350944561</v>
+        <v>0.5215076440170341</v>
       </c>
       <c r="F5">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="G5">
         <v>0.6</v>
@@ -1517,13 +1517,13 @@
         <v>0.2</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K5">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1531,34 +1531,34 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>10.12535424940972</v>
+        <v>5.563484131954427</v>
       </c>
       <c r="C6">
-        <v>163.854664605967</v>
+        <v>28.65111766185504</v>
       </c>
       <c r="D6">
-        <v>0.09044831424525526</v>
+        <v>0.1663538972060244</v>
       </c>
       <c r="E6">
-        <v>0.3714468436711699</v>
+        <v>0.5594367176814583</v>
       </c>
       <c r="F6">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="G6">
         <v>0.45</v>
       </c>
       <c r="H6">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6">
         <v>8</v>
       </c>
       <c r="K6">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1566,16 +1566,16 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>8.408445780773343</v>
+        <v>5.890971612613508</v>
       </c>
       <c r="C7">
-        <v>120.9029749493453</v>
+        <v>29.02660093741991</v>
       </c>
       <c r="D7">
-        <v>0.1192556713679725</v>
+        <v>0.1433396118284207</v>
       </c>
       <c r="E7">
-        <v>0.4585334094577922</v>
+        <v>0.5237115370738316</v>
       </c>
       <c r="F7">
         <v>0.3</v>
@@ -1593,7 +1593,7 @@
         <v>8</v>
       </c>
       <c r="K7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Optimization/Liability_Profiles.xlsx
+++ b/Optimization/Liability_Profiles.xlsx
@@ -7,33 +7,31 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Assumptions" sheetId="1" r:id="rId1"/>
+    <sheet name="ProductMix" sheetId="1" r:id="rId1"/>
     <sheet name="LiabilityCurves" sheetId="2" r:id="rId2"/>
     <sheet name="Summary" sheetId="3" r:id="rId3"/>
+    <sheet name="ArchetypeDefs" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
-  <si>
-    <t>BucketWeight_Short</t>
-  </si>
-  <si>
-    <t>BucketWeight_Medium</t>
-  </si>
-  <si>
-    <t>BucketWeight_Long</t>
-  </si>
-  <si>
-    <t>BucketDur_Short</t>
-  </si>
-  <si>
-    <t>BucketDur_Medium</t>
-  </si>
-  <si>
-    <t>BucketDur_Long</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+  <si>
+    <t>DC_Group</t>
+  </si>
+  <si>
+    <t>Payout</t>
+  </si>
+  <si>
+    <t>StableValue</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>VA_Deferred</t>
   </si>
   <si>
     <t>Company</t>
@@ -63,7 +61,7 @@
     <t>Avg_Duration_yrs</t>
   </si>
   <si>
-    <t>Convexity_proxy</t>
+    <t>Convexity</t>
   </si>
   <si>
     <t>Share_1Y</t>
@@ -72,22 +70,22 @@
     <t>Share_5Y</t>
   </si>
   <si>
-    <t>Short_wt</t>
-  </si>
-  <si>
-    <t>Medium_wt</t>
-  </si>
-  <si>
-    <t>Long_wt</t>
-  </si>
-  <si>
-    <t>Short_D</t>
-  </si>
-  <si>
-    <t>Medium_D</t>
-  </si>
-  <si>
-    <t>Long_D</t>
+    <t>B1_0_3</t>
+  </si>
+  <si>
+    <t>B2_3_7</t>
+  </si>
+  <si>
+    <t>B3_7_12</t>
+  </si>
+  <si>
+    <t>B4_12_20</t>
+  </si>
+  <si>
+    <t>B5_20_30</t>
+  </si>
+  <si>
+    <t>Archetype</t>
   </si>
 </sst>
 </file>
@@ -445,15 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -470,146 +468,125 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>0.25</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.3</v>
+      </c>
+      <c r="F2">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B2">
-        <v>0.3</v>
-      </c>
-      <c r="C2">
-        <v>0.55</v>
-      </c>
-      <c r="D2">
-        <v>0.15</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
-      <c r="G2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B3">
         <v>0.25</v>
       </c>
       <c r="C3">
-        <v>0.55</v>
+        <v>0.15</v>
       </c>
       <c r="D3">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>0.15</v>
       </c>
       <c r="F3">
-        <v>7</v>
-      </c>
-      <c r="G3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0.2</v>
       </c>
       <c r="C4">
+        <v>0.4</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.25</v>
+      </c>
+      <c r="F4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
         <v>0.5</v>
       </c>
-      <c r="D4">
-        <v>0.25</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-      <c r="G4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>0.15</v>
-      </c>
       <c r="C5">
-        <v>0.6</v>
+        <v>0.05</v>
       </c>
       <c r="D5">
         <v>0.2</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>0.05</v>
       </c>
       <c r="F5">
-        <v>7</v>
-      </c>
-      <c r="G5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="C6">
         <v>0.45</v>
       </c>
       <c r="D6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="C7">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
       <c r="D7">
+        <v>0.25</v>
+      </c>
+      <c r="E7">
+        <v>0.05</v>
+      </c>
+      <c r="F7">
         <v>0.15</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>8</v>
-      </c>
-      <c r="G7">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -627,25 +604,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -653,22 +630,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.1689185198207774</v>
+        <v>0.04633333333333334</v>
       </c>
       <c r="C2">
-        <v>0.1589805568300293</v>
+        <v>0.1006666666666667</v>
       </c>
       <c r="D2">
-        <v>0.1292242474524096</v>
+        <v>0.05999999999999998</v>
       </c>
       <c r="E2">
-        <v>0.1446944197272124</v>
+        <v>0.1563333333333334</v>
       </c>
       <c r="F2">
-        <v>0.1663538972060244</v>
+        <v>0.03966666666666667</v>
       </c>
       <c r="G2">
-        <v>0.1433396118284207</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -676,22 +653,22 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1349559073074554</v>
+        <v>0.04633333333333334</v>
       </c>
       <c r="C3">
-        <v>0.1286138573237461</v>
+        <v>0.1006666666666667</v>
       </c>
       <c r="D3">
-        <v>0.110208861221367</v>
+        <v>0.05999999999999998</v>
       </c>
       <c r="E3">
-        <v>0.1200092756082437</v>
+        <v>0.1563333333333334</v>
       </c>
       <c r="F3">
-        <v>0.1316541803165323</v>
+        <v>0.03966666666666667</v>
       </c>
       <c r="G3">
-        <v>0.1202472618056763</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -699,22 +676,22 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1089267607465874</v>
+        <v>0.09345833333333335</v>
       </c>
       <c r="C4">
-        <v>0.1051107795844779</v>
+        <v>0.1551666666666667</v>
       </c>
       <c r="D4">
-        <v>0.09443969292366754</v>
+        <v>0.09749999999999998</v>
       </c>
       <c r="E4">
-        <v>0.1003753009834837</v>
+        <v>0.2134583333333334</v>
       </c>
       <c r="F4">
-        <v>0.1054980058819011</v>
+        <v>0.07429166666666669</v>
       </c>
       <c r="G4">
-        <v>0.1013434428142841</v>
+        <v>0.218875</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -722,22 +699,22 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.08879741182910135</v>
+        <v>0.04712500000000001</v>
       </c>
       <c r="C5">
-        <v>0.08674421880123459</v>
+        <v>0.05450000000000001</v>
       </c>
       <c r="D5">
-        <v>0.08130208917836107</v>
+        <v>0.0375</v>
       </c>
       <c r="E5">
-        <v>0.08460673200273505</v>
+        <v>0.05712500000000001</v>
       </c>
       <c r="F5">
-        <v>0.08560509233035483</v>
+        <v>0.03462500000000001</v>
       </c>
       <c r="G5">
-        <v>0.0858043996641694</v>
+        <v>0.05587500000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -745,22 +722,22 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.07308268527578786</v>
+        <v>0.04712500000000001</v>
       </c>
       <c r="C6">
-        <v>0.0722484443646008</v>
+        <v>0.05450000000000001</v>
       </c>
       <c r="D6">
-        <v>0.0703057432888993</v>
+        <v>0.0375</v>
       </c>
       <c r="E6">
-        <v>0.0718219156953592</v>
+        <v>0.05712500000000001</v>
       </c>
       <c r="F6">
-        <v>0.07032554194664559</v>
+        <v>0.03462500000000001</v>
       </c>
       <c r="G6">
-        <v>0.07297682096128102</v>
+        <v>0.05587500000000001</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -768,22 +745,22 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.06069410137305786</v>
+        <v>0.04712500000000001</v>
       </c>
       <c r="C7">
-        <v>0.06069201257941569</v>
+        <v>0.05450000000000001</v>
       </c>
       <c r="D7">
-        <v>0.06105852390324381</v>
+        <v>0.0375</v>
       </c>
       <c r="E7">
-        <v>0.06136132364161986</v>
+        <v>0.05712500000000001</v>
       </c>
       <c r="F7">
-        <v>0.05846298935923304</v>
+        <v>0.03462500000000001</v>
       </c>
       <c r="G7">
-        <v>0.06234150282250712</v>
+        <v>0.05587500000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -791,22 +768,22 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.05083062078527152</v>
+        <v>0.04750000000000001</v>
       </c>
       <c r="C8">
-        <v>0.0513862160531242</v>
+        <v>0.0401</v>
       </c>
       <c r="D8">
-        <v>0.0532459377499143</v>
+        <v>0.043</v>
       </c>
       <c r="E8">
-        <v>0.05272824690687104</v>
+        <v>0.03130000000000001</v>
       </c>
       <c r="F8">
-        <v>0.04914766768916227</v>
+        <v>0.04550000000000001</v>
       </c>
       <c r="G8">
-        <v>0.05348489065617643</v>
+        <v>0.02950000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -814,22 +791,22 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.0428999369664698</v>
+        <v>0.04750000000000001</v>
       </c>
       <c r="C9">
-        <v>0.04381906103019465</v>
+        <v>0.0401</v>
       </c>
       <c r="D9">
-        <v>0.04661499831020754</v>
+        <v>0.043</v>
       </c>
       <c r="E9">
-        <v>0.04554581712660226</v>
+        <v>0.03130000000000001</v>
       </c>
       <c r="F9">
-        <v>0.04174526729669332</v>
+        <v>0.04550000000000001</v>
       </c>
       <c r="G9">
-        <v>0.04607677507062253</v>
+        <v>0.02950000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -837,22 +814,22 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.03646171300472617</v>
+        <v>0.04750000000000001</v>
       </c>
       <c r="C10">
-        <v>0.03760759249273037</v>
+        <v>0.0401</v>
       </c>
       <c r="D10">
-        <v>0.04096154182770435</v>
+        <v>0.043</v>
       </c>
       <c r="E10">
-        <v>0.03952579022045105</v>
+        <v>0.03130000000000001</v>
       </c>
       <c r="F10">
-        <v>0.03579146314242987</v>
+        <v>0.04550000000000001</v>
       </c>
       <c r="G10">
-        <v>0.03985279711466438</v>
+        <v>0.02950000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -860,22 +837,22 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.0311865910005001</v>
+        <v>0.04750000000000001</v>
       </c>
       <c r="C11">
-        <v>0.03246341473727911</v>
+        <v>0.0401</v>
       </c>
       <c r="D11">
-        <v>0.03612024222392923</v>
+        <v>0.043</v>
       </c>
       <c r="E11">
-        <v>0.03444581425917648</v>
+        <v>0.03130000000000001</v>
       </c>
       <c r="F11">
-        <v>0.03094485402337349</v>
+        <v>0.04550000000000001</v>
       </c>
       <c r="G11">
-        <v>0.03460071358686885</v>
+        <v>0.02950000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -883,22 +860,22 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.02682654515256866</v>
+        <v>0.04750000000000001</v>
       </c>
       <c r="C12">
-        <v>0.02816770917744057</v>
+        <v>0.0401</v>
       </c>
       <c r="D12">
-        <v>0.03195674038767736</v>
+        <v>0.043</v>
       </c>
       <c r="E12">
-        <v>0.03013282492458573</v>
+        <v>0.03130000000000001</v>
       </c>
       <c r="F12">
-        <v>0.02695311171788654</v>
+        <v>0.04550000000000001</v>
       </c>
       <c r="G12">
-        <v>0.03014960353898046</v>
+        <v>0.02950000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -906,22 +883,22 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.0231933995512811</v>
+        <v>0.0276875</v>
       </c>
       <c r="C13">
-        <v>0.02455309384764711</v>
+        <v>0.01925000000000001</v>
       </c>
       <c r="D13">
-        <v>0.02836143114394794</v>
+        <v>0.02818749999999999</v>
       </c>
       <c r="E13">
-        <v>0.0264508735726873</v>
+        <v>0.0115</v>
       </c>
       <c r="F13">
-        <v>0.0236286106511671</v>
+        <v>0.03143750000000001</v>
       </c>
       <c r="G13">
-        <v>0.02636137672615365</v>
+        <v>0.0109375</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -929,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.02014322796433338</v>
+        <v>0.0276875</v>
       </c>
       <c r="C14">
-        <v>0.02149041697548803</v>
+        <v>0.01925000000000001</v>
       </c>
       <c r="D14">
-        <v>0.02524455094033466</v>
+        <v>0.02818749999999999</v>
       </c>
       <c r="E14">
-        <v>0.02329216780318401</v>
+        <v>0.0115</v>
       </c>
       <c r="F14">
-        <v>0.02083086407737565</v>
+        <v>0.03143750000000001</v>
       </c>
       <c r="G14">
-        <v>0.02312408482740998</v>
+        <v>0.0109375</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -952,22 +929,22 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.01756499576346825</v>
+        <v>0.0276875</v>
       </c>
       <c r="C15">
-        <v>0.01887911352500871</v>
+        <v>0.01925000000000001</v>
       </c>
       <c r="D15">
-        <v>0.02253228711115453</v>
+        <v>0.02818749999999999</v>
       </c>
       <c r="E15">
-        <v>0.02057044545696172</v>
+        <v>0.0115</v>
       </c>
       <c r="F15">
-        <v>0.01845384919940954</v>
+        <v>0.03143750000000001</v>
       </c>
       <c r="G15">
-        <v>0.02034664550314149</v>
+        <v>0.0109375</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -975,22 +952,22 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.01537226533269883</v>
+        <v>0.0276875</v>
       </c>
       <c r="C16">
-        <v>0.01664013861853028</v>
+        <v>0.01925000000000001</v>
       </c>
       <c r="D16">
-        <v>0.02016369032116088</v>
+        <v>0.02818749999999999</v>
       </c>
       <c r="E16">
-        <v>0.01821604795776315</v>
+        <v>0.0115</v>
       </c>
       <c r="F16">
-        <v>0.01641684583369911</v>
+        <v>0.03143750000000001</v>
       </c>
       <c r="G16">
-        <v>0.01795467457314591</v>
+        <v>0.0109375</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -998,22 +975,22 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.01349711724328469</v>
+        <v>0.0276875</v>
       </c>
       <c r="C17">
-        <v>0.01471076809906965</v>
+        <v>0.01925000000000001</v>
       </c>
       <c r="D17">
-        <v>0.01808821921399954</v>
+        <v>0.02818749999999999</v>
       </c>
       <c r="E17">
-        <v>0.01617223501883976</v>
+        <v>0.0115</v>
       </c>
       <c r="F17">
-        <v>0.01465780188356605</v>
+        <v>0.03143750000000001</v>
       </c>
       <c r="G17">
-        <v>0.01588718808711703</v>
+        <v>0.0109375</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1021,22 +998,22 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.01188567703420053</v>
+        <v>0.0276875</v>
       </c>
       <c r="C18">
-        <v>0.01304075493373511</v>
+        <v>0.01925000000000001</v>
       </c>
       <c r="D18">
-        <v>0.01626378332779362</v>
+        <v>0.02818749999999999</v>
       </c>
       <c r="E18">
-        <v>0.014392409403876</v>
+        <v>0.0115</v>
       </c>
       <c r="F18">
-        <v>0.01312851751255854</v>
+        <v>0.03143750000000001</v>
       </c>
       <c r="G18">
-        <v>0.01409398794811012</v>
+        <v>0.0109375</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1044,22 +1021,22 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.01049480801663064</v>
+        <v>0.0276875</v>
       </c>
       <c r="C19">
-        <v>0.01158947271125685</v>
+        <v>0.01925000000000001</v>
       </c>
       <c r="D19">
-        <v>0.01465517927657969</v>
+        <v>0.02818749999999999</v>
       </c>
       <c r="E19">
-        <v>0.01283801161304731</v>
+        <v>0.0115</v>
       </c>
       <c r="F19">
-        <v>0.01179113968148529</v>
+        <v>0.03143750000000001</v>
       </c>
       <c r="G19">
-        <v>0.01253358525512201</v>
+        <v>0.0109375</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1067,22 +1044,22 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.009289653063451727</v>
+        <v>0.0276875</v>
       </c>
       <c r="C20">
-        <v>0.01032377994725274</v>
+        <v>0.01925000000000001</v>
       </c>
       <c r="D20">
-        <v>0.01323283781291006</v>
+        <v>0.02818749999999999</v>
       </c>
       <c r="E20">
-        <v>0.01147691006329664</v>
+        <v>0.0115</v>
       </c>
       <c r="F20">
-        <v>0.01061560196782632</v>
+        <v>0.03143750000000001</v>
       </c>
       <c r="G20">
-        <v>0.01117154716035096</v>
+        <v>0.0109375</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1090,22 +1067,22 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.008241796424692853</v>
+        <v>0.02135</v>
       </c>
       <c r="C21">
-        <v>0.009216412601700755</v>
+        <v>0.01255</v>
       </c>
       <c r="D21">
-        <v>0.01197181707220569</v>
+        <v>0.02295</v>
       </c>
       <c r="E21">
-        <v>0.0102821597221116</v>
+        <v>0.0054</v>
       </c>
       <c r="F21">
-        <v>0.009577747331576807</v>
+        <v>0.02635000000000001</v>
       </c>
       <c r="G21">
-        <v>0.009979177743518341</v>
+        <v>0.005250000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1113,22 +1090,22 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.007327879960072668</v>
+        <v>0.02135</v>
       </c>
       <c r="C22">
-        <v>0.008244765253117955</v>
+        <v>0.01255</v>
       </c>
       <c r="D22">
-        <v>0.01085099113580986</v>
+        <v>0.02295</v>
       </c>
       <c r="E22">
-        <v>0.009231036384041907</v>
+        <v>0.0054</v>
       </c>
       <c r="F22">
-        <v>0.008657945198996238</v>
+        <v>0.02635000000000001</v>
       </c>
       <c r="G22">
-        <v>0.008932462712454462</v>
+        <v>0.005250000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1136,22 +1113,22 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.006528553778406027</v>
+        <v>0.02135</v>
       </c>
       <c r="C23">
-        <v>0.007389959585318961</v>
+        <v>0.01255</v>
       </c>
       <c r="D23">
-        <v>0.009852393881129731</v>
+        <v>0.02295</v>
       </c>
       <c r="E23">
-        <v>0.008304278543047003</v>
+        <v>0.0054</v>
       </c>
       <c r="F23">
-        <v>0.007840067126318101</v>
+        <v>0.02635000000000001</v>
       </c>
       <c r="G23">
-        <v>0.008011222832801012</v>
+        <v>0.005250000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1159,22 +1136,22 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.005827674125466828</v>
+        <v>0.02135</v>
       </c>
       <c r="C24">
-        <v>0.006636126401338443</v>
+        <v>0.01255</v>
       </c>
       <c r="D24">
-        <v>0.008960686571916253</v>
+        <v>0.02295</v>
       </c>
       <c r="E24">
-        <v>0.007485486763314183</v>
+        <v>0.0054</v>
       </c>
       <c r="F24">
-        <v>0.007110723271122974</v>
+        <v>0.02635000000000001</v>
       </c>
       <c r="G24">
-        <v>0.007198432795363377</v>
+        <v>0.005250000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1182,22 +1159,22 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.005211685056341802</v>
+        <v>0.02135</v>
       </c>
       <c r="C25">
-        <v>0.00596984728103732</v>
+        <v>0.01255</v>
       </c>
       <c r="D25">
-        <v>0.008162724292963665</v>
+        <v>0.02295</v>
       </c>
       <c r="E25">
-        <v>0.006760643490736385</v>
+        <v>0.0054</v>
       </c>
       <c r="F25">
-        <v>0.00645868916257923</v>
+        <v>0.02635000000000001</v>
       </c>
       <c r="G25">
-        <v>0.006479671468697538</v>
+        <v>0.005250000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1205,22 +1182,22 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.004669137540602557</v>
+        <v>0.02135</v>
       </c>
       <c r="C26">
-        <v>0.005379716393884558</v>
+        <v>0.01255</v>
       </c>
       <c r="D26">
-        <v>0.007447201551773477</v>
+        <v>0.02295</v>
       </c>
       <c r="E26">
-        <v>0.006117725744915994</v>
+        <v>0.0054</v>
       </c>
       <c r="F26">
-        <v>0.005874471849804623</v>
+        <v>0.02635000000000001</v>
       </c>
       <c r="G26">
-        <v>0.005842676719417359</v>
+        <v>0.005250000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1228,22 +1205,22 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.004190312026710763</v>
+        <v>0.02135</v>
       </c>
       <c r="C27">
-        <v>0.004855993409570702</v>
+        <v>0.01255</v>
       </c>
       <c r="D27">
-        <v>0.006804361467505765</v>
+        <v>0.02295</v>
       </c>
       <c r="E27">
-        <v>0.005546390070828585</v>
+        <v>0.0054</v>
       </c>
       <c r="F27">
-        <v>0.005349978589746575</v>
+        <v>0.02635000000000001</v>
       </c>
       <c r="G27">
-        <v>0.005276983652136308</v>
+        <v>0.005250000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1251,22 +1228,22 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.003766919462447935</v>
+        <v>0.02135</v>
       </c>
       <c r="C28">
-        <v>0.00439032602456545</v>
+        <v>0.01255</v>
       </c>
       <c r="D28">
-        <v>0.006225756188719751</v>
+        <v>0.02295</v>
       </c>
       <c r="E28">
-        <v>0.005037714217554393</v>
+        <v>0.0054</v>
       </c>
       <c r="F28">
-        <v>0.004878261367494737</v>
+        <v>0.02635000000000001</v>
       </c>
       <c r="G28">
-        <v>0.0047736295670995</v>
+        <v>0.005250000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1274,22 +1251,22 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.003391862283364528</v>
+        <v>0.02135</v>
       </c>
       <c r="C29">
-        <v>0.003975526138532037</v>
+        <v>0.01255</v>
       </c>
       <c r="D29">
-        <v>0.005704048716391541</v>
+        <v>0.02295</v>
       </c>
       <c r="E29">
-        <v>0.004583983758022363</v>
+        <v>0.0054</v>
       </c>
       <c r="F29">
-        <v>0.004453317837873713</v>
+        <v>0.02635000000000001</v>
       </c>
       <c r="G29">
-        <v>0.004324912423393893</v>
+        <v>0.005250000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1297,22 +1274,22 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.003059041625583998</v>
+        <v>0.02135</v>
       </c>
       <c r="C30">
-        <v>0.003605387742841492</v>
+        <v>0.01255</v>
       </c>
       <c r="D30">
-        <v>0.005232848306187411</v>
+        <v>0.02295</v>
       </c>
       <c r="E30">
-        <v>0.0041785146354649</v>
+        <v>0.0054</v>
       </c>
       <c r="F30">
-        <v>0.00406993453704964</v>
+        <v>0.02635000000000001</v>
       </c>
       <c r="G30">
-        <v>0.003924192337492167</v>
+        <v>0.005250000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1320,22 +1297,22 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.002763200484657421</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>0.003274537535830547</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>0.004806573200134923</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>0.003815504683966462</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.003723562010113036</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0.003565727803423673</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1345,255 +1322,262 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B2">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="C2">
+        <v>53.07</v>
+      </c>
+      <c r="D2">
+        <v>0.05</v>
+      </c>
+      <c r="E2">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>6.87</v>
+      </c>
+      <c r="C3">
+        <v>40.92</v>
+      </c>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+      <c r="E3">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>9.51</v>
+      </c>
+      <c r="C4">
+        <v>57.39</v>
+      </c>
+      <c r="D4">
+        <v>0.06</v>
+      </c>
+      <c r="E4">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>4.89</v>
+      </c>
+      <c r="C5">
+        <v>24.42</v>
+      </c>
+      <c r="D5">
+        <v>0.16</v>
+      </c>
+      <c r="E5">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>10.7</v>
+      </c>
+      <c r="C6">
+        <v>58.67</v>
+      </c>
+      <c r="D6">
+        <v>0.04</v>
+      </c>
+      <c r="E6">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>4.75</v>
+      </c>
+      <c r="C7">
+        <v>23.71</v>
+      </c>
+      <c r="D7">
+        <v>0.16</v>
+      </c>
+      <c r="E7">
+        <v>0.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>5.354648814067438</v>
+        <v>0.65</v>
       </c>
       <c r="C2">
-        <v>25.61477230635892</v>
+        <v>0.2</v>
       </c>
       <c r="D2">
-        <v>0.1689185198207774</v>
+        <v>0.1</v>
       </c>
       <c r="E2">
-        <v>0.5746812849797094</v>
+        <v>0.04</v>
       </c>
       <c r="F2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.55</v>
+      </c>
+      <c r="C3">
+        <v>0.25</v>
+      </c>
+      <c r="D3">
+        <v>0.12</v>
+      </c>
+      <c r="E3">
+        <v>0.06</v>
+      </c>
+      <c r="F3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.15</v>
+      </c>
+      <c r="C4">
+        <v>0.35</v>
+      </c>
+      <c r="D4">
         <v>0.3</v>
       </c>
-      <c r="G2">
-        <v>0.55</v>
-      </c>
-      <c r="H2">
+      <c r="E4">
         <v>0.15</v>
       </c>
-      <c r="I2">
+      <c r="F4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0.05</v>
+      </c>
+      <c r="C5">
+        <v>0.1</v>
+      </c>
+      <c r="D5">
+        <v>0.25</v>
+      </c>
+      <c r="E5">
+        <v>0.3</v>
+      </c>
+      <c r="F5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2">
-        <v>7</v>
-      </c>
-      <c r="K2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>5.603951939757283</v>
-      </c>
-      <c r="C3">
-        <v>27.65811079765091</v>
-      </c>
-      <c r="D3">
-        <v>0.1589805568300293</v>
-      </c>
-      <c r="E3">
-        <v>0.5516978569040888</v>
-      </c>
-      <c r="F3">
-        <v>0.25</v>
-      </c>
-      <c r="G3">
-        <v>0.55</v>
-      </c>
-      <c r="H3">
+      <c r="B6">
+        <v>0.03</v>
+      </c>
+      <c r="C6">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D6">
         <v>0.2</v>
       </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>7</v>
-      </c>
-      <c r="K3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>6.357645888860254</v>
-      </c>
-      <c r="C4">
-        <v>33.02367349563603</v>
-      </c>
-      <c r="D4">
-        <v>0.1292242474524096</v>
-      </c>
-      <c r="E4">
-        <v>0.4854806340647045</v>
-      </c>
-      <c r="F4">
-        <v>0.2</v>
-      </c>
-      <c r="G4">
-        <v>0.5</v>
-      </c>
-      <c r="H4">
-        <v>0.25</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <v>8</v>
-      </c>
-      <c r="K4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>5.927794806340268</v>
-      </c>
-      <c r="C5">
-        <v>29.76149868479486</v>
-      </c>
-      <c r="D5">
-        <v>0.1446944197272124</v>
-      </c>
-      <c r="E5">
-        <v>0.5215076440170341</v>
-      </c>
-      <c r="F5">
-        <v>0.15</v>
-      </c>
-      <c r="G5">
-        <v>0.6</v>
-      </c>
-      <c r="H5">
-        <v>0.2</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>7</v>
-      </c>
-      <c r="K5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>5.563484131954427</v>
-      </c>
-      <c r="C6">
-        <v>28.65111766185504</v>
-      </c>
-      <c r="D6">
-        <v>0.1663538972060244</v>
-      </c>
       <c r="E6">
-        <v>0.5594367176814583</v>
+        <v>0.3</v>
       </c>
       <c r="F6">
-        <v>0.35</v>
-      </c>
-      <c r="G6">
-        <v>0.45</v>
-      </c>
-      <c r="H6">
-        <v>0.2</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>8</v>
-      </c>
-      <c r="K6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>5.890971612613508</v>
-      </c>
-      <c r="C7">
-        <v>29.02660093741991</v>
-      </c>
-      <c r="D7">
-        <v>0.1433396118284207</v>
-      </c>
-      <c r="E7">
-        <v>0.5237115370738316</v>
-      </c>
-      <c r="F7">
-        <v>0.3</v>
-      </c>
-      <c r="G7">
-        <v>0.55</v>
-      </c>
-      <c r="H7">
-        <v>0.15</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7">
-        <v>8</v>
-      </c>
-      <c r="K7">
-        <v>17</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
